--- a/y-Manipulated Tables/DataSet/Tables/ORGANIZATION.xlsx
+++ b/y-Manipulated Tables/DataSet/Tables/ORGANIZATION.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BDSM\CSE303-sec-03-Group-03\y-Manipulated Tables\DataSet\Final Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BDSM\CSE303-sec-03-Group-03\y-Manipulated Tables\DataSet\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E475319E-F5BF-4246-8B7D-718E20A4F4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4340AA0D-1791-4666-B403-A42889FF5C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5160" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>orgID</t>
   </si>
@@ -50,16 +50,31 @@
   </si>
   <si>
     <t>IQ Air</t>
+  </si>
+  <si>
+    <t>org1</t>
+  </si>
+  <si>
+    <t>org2</t>
+  </si>
+  <si>
+    <t>org3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,7 +385,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,30 +403,31 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/y-Manipulated Tables/DataSet/Tables/ORGANIZATION.xlsx
+++ b/y-Manipulated Tables/DataSet/Tables/ORGANIZATION.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BDSM\CSE303-sec-03-Group-03\y-Manipulated Tables\DataSet\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4340AA0D-1791-4666-B403-A42889FF5C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6310DA2D-2D3E-445E-AA7E-BD6CFD3DA3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5160" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
